--- a/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type1/pd_results_W20_H200_B32.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type1/pd_results_W20_H200_B32.xlsx
@@ -518,7 +518,7 @@
         <v>0.7111984282907663</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4664634146341464</v>
+        <v>0.4817073170731707</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.06593127550821594</v>
+        <v>0.03889702392743467</v>
       </c>
       <c r="J2" t="n">
-        <v>821.0474085193138</v>
+        <v>501.4498053546882</v>
       </c>
       <c r="K2" t="n">
-        <v>849270.2584260994</v>
+        <v>371074.1622812924</v>
       </c>
       <c r="L2" t="n">
-        <v>921.5586028170425</v>
+        <v>609.1585690781116</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8397929348392734</v>
+        <v>0.9300002538576664</v>
       </c>
     </row>
   </sheetData>
